--- a/30 s/plans_coupants_sol.xlsx
+++ b/30 s/plans_coupants_sol.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>nom_fichier</t>
   </si>
@@ -45,124 +45,118 @@
     <t>gap</t>
   </si>
   <si>
+    <t>                              </t>
+  </si>
+  <si>
+    <t>                                                                                                                                                                                                        </t>
+  </si>
+  <si>
     <t>10_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[1, 2, 3, 10][4, 6, 7, 8][5...</t>
+    <t>136.99527629589414</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 10][4, 6, 7, 8][5, 9]</t>
   </si>
   <si>
     <t>10_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[7][5][4, 6, 9][8][10][1]</t>
+    <t>55.11939124322688</t>
+  </si>
+  <si>
+    <t>[6, 9][5][1, 4, 8][2, 3][10][7]</t>
   </si>
   <si>
     <t>10_ulysses_9.tsp</t>
   </si>
   <si>
-    <t>[10][1][5][2][3][7][9][4][6...</t>
+    <t>8.24224483984794</t>
+  </si>
+  <si>
+    <t>[3][2][4][5][1][7][6][9][8, 10]</t>
   </si>
   <si>
     <t>14_burma_3.tsp</t>
   </si>
   <si>
-    <t>[3, 4, 5, 6, 7][2, 12, 13, ...</t>
+    <t>93.3899872599682</t>
+  </si>
+  <si>
+    <t>[1, 8, 9, 10, 11][3, 4, 5, 6, 7][2, 12, 13, 14]</t>
   </si>
   <si>
     <t>14_burma_6.tsp</t>
   </si>
   <si>
-    <t>[9, 10, 11][8, 13][4, 5][6,...</t>
+    <t>20.271625497557796</t>
+  </si>
+  <si>
+    <t>[9, 10, 11][8, 13][4, 5][6, 7, 12][3, 14][1, 2]</t>
   </si>
   <si>
     <t>14_burma_9.tsp</t>
   </si>
   <si>
-    <t>[4][8, 13][10][6, 12][3, 14...</t>
+    <t>7.466294742181638</t>
+  </si>
+  <si>
+    <t>[7][10][5][4][6, 12][2, 8][13][3, 14][1, 9, 11]</t>
   </si>
   <si>
     <t>22_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>[9, 10, 11, 19, 20, 21][5, ...</t>
+    <t>346.1681383174905</t>
+  </si>
+  <si>
+    <t>[7, 10, 12, 13, 16, 20, 21][5, 6, 9, 11, 14, 15, 19][1, 2, 3, 4, 8, 17, 18, 22]</t>
   </si>
   <si>
     <t>22_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>[7, 12, 13, 14][9, 11][5, 6...</t>
-  </si>
-  <si>
-    <t>100_kroA_3.tsp</t>
-  </si>
-  <si>
-    <t>[1, 3, 4, 7, 11, 21, 23, 25...</t>
-  </si>
-  <si>
-    <t>100_kroA_6.tsp</t>
-  </si>
-  <si>
-    <t>[1, 2, 9, 10, 19, 22, 30, 3...</t>
-  </si>
-  <si>
-    <t>100_kroA_9.tsp</t>
-  </si>
-  <si>
-    <t>[13, 26, 48, 74, 94, 95, 99...</t>
-  </si>
-  <si>
-    <t>202_gr_3.tsp</t>
-  </si>
-  <si>
-    <t>[2, 3, 4, 5, 6, 7, 10, 11, ...</t>
-  </si>
-  <si>
-    <t>202_gr_6.tsp</t>
-  </si>
-  <si>
-    <t>[5, 7, 11, 16, 29, 31, 36, ...</t>
-  </si>
-  <si>
-    <t>202_gr_9.tsp</t>
-  </si>
-  <si>
-    <t>[4, 27, 32, 35, 37, 41, 52,...</t>
-  </si>
-  <si>
-    <t>318_lin_3.tsp</t>
-  </si>
-  <si>
-    <t>[4, 6, 7, 8, 11, 12, 16, 17...</t>
-  </si>
-  <si>
-    <t>318_lin_6.tsp</t>
-  </si>
-  <si>
-    <t>[10, 12, 15, 29, 31, 32, 33...</t>
-  </si>
-  <si>
-    <t>318_lin_9.tsp</t>
-  </si>
-  <si>
-    <t>[1, 4, 6, 10, 12, 13, 34, 3...</t>
-  </si>
-  <si>
-    <t>400_rd_3.tsp</t>
-  </si>
-  <si>
-    <t>[4, 10, 11, 14, 16, 19, 21,...</t>
-  </si>
-  <si>
-    <t>400_rd_6.tsp</t>
-  </si>
-  <si>
-    <t>[39, 42, 44, 49, 53, 54, 58...</t>
-  </si>
-  <si>
-    <t>532_att_3.tsp</t>
-  </si>
-  <si>
-    <t>[2, 4, 5, 6, 7, 8, 11, 13, ...</t>
+    <t>82.85512313088837</t>
+  </si>
+  <si>
+    <t>[7, 12, 13, 14][9, 11][5, 6, 15][2, 3, 4, 17][1, 8, 16, 18, 22][10, 19, 20, 21]</t>
+  </si>
+  <si>
+    <t>22_ulysses_9.tsp</t>
+  </si>
+  <si>
+    <t>37.729677948218736</t>
+  </si>
+  <si>
+    <t>[5, 9][2, 3, 17][19, 20, 21][4, 18, 22][13, 16][1, 8][6, 7, 10][11][12, 14, 15]</t>
+  </si>
+  <si>
+    <t>26_eil_3.tsp</t>
+  </si>
+  <si>
+    <t>2139.047535560577</t>
+  </si>
+  <si>
+    <t>[4, 5, 12, 13, 17, 18, 19, 25][2, 3, 8, 9, 10, 11, 16, 20, 21, 22][1, 6, 7, 14, 15, 23, 24, 26]</t>
+  </si>
+  <si>
+    <t>26_eil_6.tsp</t>
+  </si>
+  <si>
+    <t>800.1149291670063</t>
+  </si>
+  <si>
+    <t>[2, 9, 16, 20, 21][1, 8, 11, 22, 23, 26][13, 18, 19][4, 5, 12, 15, 17][3, 7, 10][6, 14, 24, 25]</t>
+  </si>
+  <si>
+    <t>26_eil_9.tsp</t>
+  </si>
+  <si>
+    <t>385.99973028587885</t>
+  </si>
+  <si>
+    <t>[4, 12, 17][2, 11, 16, 22][13, 19][5, 9, 10][3, 20, 21][1, 6, 25][7, 8, 26][23, 24][14, 15, 18]</t>
   </si>
 </sst>
 </file>
@@ -514,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,16 +539,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>4.7729997634887695</v>
-      </c>
-      <c r="C2">
-        <v>136.99527629589417</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>136.99527629589417</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
         <v>0.0</v>
@@ -565,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.696999788284302</v>
-      </c>
-      <c r="C3">
-        <v>43.787673750084686</v>
+        <v>7.641</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>43.787673750084686</v>
+        <v>136.99527629589414</v>
       </c>
       <c r="F3">
         <v>0.0</v>
@@ -582,19 +576,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>29.29100012779236</v>
-      </c>
-      <c r="C4">
-        <v>8.250096969127092</v>
+        <v>4.9100000858306885</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>8.250096969127092</v>
+        <v>55.11939124322688</v>
       </c>
       <c r="F4">
         <v>0.0</v>
@@ -602,342 +596,202 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>15.82200002670288</v>
-      </c>
-      <c r="C5">
-        <v>93.38998725996821</v>
+        <v>30.019999980926514</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>93.38842352413063</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>1.674414874074011e-5</v>
+        <v>0.9999999999878674</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>30.04699993133545</v>
-      </c>
-      <c r="C6">
-        <v>20.271625497557796</v>
+        <v>13.851999998092651</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>7.464958722064927</v>
+        <v>93.3899872599682</v>
       </c>
       <c r="F6">
-        <v>0.6317533232336284</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>30.075000047683716</v>
-      </c>
-      <c r="C7">
-        <v>6.9290854439597505</v>
+        <v>30.062000036239624</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>4.254254639415977</v>
+        <v>6.5135550962216255</v>
       </c>
       <c r="F7">
-        <v>0.3860294155900307</v>
+        <v>0.6786860976158914</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>30.04699993133545</v>
-      </c>
-      <c r="C8">
-        <v>329.19057479523696</v>
+        <v>30.13100004196167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>327.98631033153873</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0.003658259245262212</v>
+        <v>0.9999999999866065</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>30.11400008201599</v>
-      </c>
-      <c r="C9">
-        <v>82.85512313088837</v>
+        <v>30.103999853134155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>64.29407272329736</v>
+        <v>258.5752699863557</v>
       </c>
       <c r="F9">
-        <v>0.224018138000317</v>
+        <v>0.2530356166134883</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>31.875</v>
-      </c>
-      <c r="C10">
-        <v>2.787222545015938e6</v>
+        <v>30.121999979019165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>62.4666508141181</v>
       </c>
       <c r="F10">
-        <v>1.0</v>
+        <v>0.24607376763579814</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>31.081000089645386</v>
-      </c>
-      <c r="C11">
-        <v>1.4115014350239667e6</v>
+        <v>30.125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0.0</v>
       </c>
       <c r="F11">
-        <v>1.0</v>
+        <v>0.9999999999973496</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>31.65000009536743</v>
-      </c>
-      <c r="C12">
-        <v>890960.0387209854</v>
+        <v>30.098000049591064</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>1129.9838853423023</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999999</v>
+        <v>0.4717350285316515</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>33.41600012779236</v>
-      </c>
-      <c r="C13">
-        <v>94905.49627595214</v>
+        <v>30.152000188827515</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>148.7579231918183</v>
       </c>
       <c r="F13">
-        <v>0.9999999999999989</v>
+        <v>0.8140793056482892</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14">
-        <v>36.866000175476074</v>
-      </c>
-      <c r="C14">
-        <v>51950.316544055415</v>
+        <v>30.121999979019165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>0.0</v>
+        <v>85.51851738373708</v>
       </c>
       <c r="F14">
-        <v>0.999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>39.65299987792969</v>
-      </c>
-      <c r="C15">
-        <v>34255.82975566211</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0.0</v>
-      </c>
-      <c r="F15">
-        <v>0.999999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>36.93299984931946</v>
-      </c>
-      <c r="C16">
-        <v>3.0843048960974816e7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17">
-        <v>51.675999879837036</v>
-      </c>
-      <c r="C17">
-        <v>1.5522666369454417e7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>53.293999910354614</v>
-      </c>
-      <c r="C18">
-        <v>1.044109232970903e7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>48.117999792099</v>
-      </c>
-      <c r="C19">
-        <v>1.4005594253486957e7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>0.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>62.18599987030029</v>
-      </c>
-      <c r="C20">
-        <v>7.031681483989426e6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <v>0.0</v>
-      </c>
-      <c r="F20">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>55.94199991226196</v>
-      </c>
-      <c r="C21">
-        <v>1.4338029244439676e8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>0.0</v>
-      </c>
-      <c r="F21">
-        <v>1.0</v>
+        <v>0.7784492820228702</v>
       </c>
     </row>
   </sheetData>
